--- a/fechas.xlsx
+++ b/fechas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PVE-polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF2BD2-EC90-4EE3-9BF5-8DE715452CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AEAAB0-6484-450D-AD1B-300177A7DE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,21 +387,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -412,9 +412,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>3092222402</v>
+        <v>309222402</v>
       </c>
       <c r="B2" s="1">
         <v>21</v>
@@ -423,7 +423,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>416163151</v>
       </c>
@@ -433,8 +433,11 @@
       <c r="C3" s="2">
         <v>45140</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
+        <v>309222402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>416157730</v>
       </c>
@@ -445,7 +448,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>413145772</v>
       </c>
@@ -456,7 +459,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>416158775</v>
       </c>
@@ -467,7 +470,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>311005633</v>
       </c>
@@ -478,7 +481,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>300058756</v>
       </c>
@@ -489,7 +492,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>410133147</v>
       </c>
@@ -500,7 +503,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>312296108</v>
       </c>
@@ -511,7 +514,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>313152410</v>
       </c>
@@ -522,7 +525,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>416160947</v>
       </c>
@@ -533,7 +536,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>416161322</v>
       </c>
@@ -544,7 +547,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>312195018</v>
       </c>
@@ -555,7 +558,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>312197098</v>
       </c>
@@ -566,7 +569,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>312047340</v>
       </c>
@@ -689,7 +692,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>313560605</v>
+        <v>313560606</v>
       </c>
       <c r="B27" s="1">
         <v>17</v>
@@ -778,7 +781,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>3121261406</v>
+        <v>312161406</v>
       </c>
       <c r="B35" s="1">
         <v>17</v>
@@ -888,7 +891,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>30513100</v>
+        <v>305131100</v>
       </c>
       <c r="B45" s="1">
         <v>15</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>3130822175</v>
+        <v>313082175</v>
       </c>
       <c r="B73" s="1">
         <v>15</v>
@@ -1515,7 +1518,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>312120259</v>
+        <v>302120259</v>
       </c>
       <c r="B102" s="1">
         <v>22</v>
